--- a/biology/Mycologie/Lentinellus/Lentinellus.xlsx
+++ b/biology/Mycologie/Lentinellus/Lentinellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lentinellus est un genre de champignons basidiomycètes de la famille des Auriscalpiaceae. Ils étaient jadis classés dans les Lentinus.
 Il comprend notamment le lentin en colimaçon (Lentinellus cochleatus) qui est l'espèce type.
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Catalogue of Life :
 Lentinellus brunnescens
